--- a/data/pca/factorExposure/factorExposure_2015-07-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.02031465100031575</v>
+        <v>0.01107685405113749</v>
       </c>
       <c r="C2">
-        <v>-0.02735517397822965</v>
+        <v>-0.05230186986126695</v>
       </c>
       <c r="D2">
-        <v>0.1300702358241149</v>
+        <v>0.1473163600379394</v>
       </c>
       <c r="E2">
-        <v>-0.0006612397472804822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.006368548522096125</v>
+      </c>
+      <c r="F2">
+        <v>-0.0142275788718681</v>
+      </c>
+      <c r="G2">
+        <v>0.1259900332646462</v>
+      </c>
+      <c r="H2">
+        <v>0.05677629452840026</v>
+      </c>
+      <c r="I2">
+        <v>0.03503856914444391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.005947041785472746</v>
+        <v>-0.0006290834330118381</v>
       </c>
       <c r="C3">
-        <v>-0.01740185363770219</v>
+        <v>-0.01423989765652822</v>
       </c>
       <c r="D3">
-        <v>0.01260781697144354</v>
+        <v>0.008157447977048597</v>
       </c>
       <c r="E3">
-        <v>0.00096653446715446</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.01746065672223117</v>
+      </c>
+      <c r="F3">
+        <v>0.01578073582822333</v>
+      </c>
+      <c r="G3">
+        <v>0.001264220521497349</v>
+      </c>
+      <c r="H3">
+        <v>0.007056246827342282</v>
+      </c>
+      <c r="I3">
+        <v>-0.01175089410446451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.0467801804717545</v>
+        <v>0.02216279941345604</v>
       </c>
       <c r="C4">
-        <v>-0.07019491118692156</v>
+        <v>-0.09924676858851833</v>
       </c>
       <c r="D4">
-        <v>0.1320905181530473</v>
+        <v>0.1412237473081688</v>
       </c>
       <c r="E4">
-        <v>0.07100174514774552</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.0162433146192116</v>
+      </c>
+      <c r="F4">
+        <v>-0.08617675859956909</v>
+      </c>
+      <c r="G4">
+        <v>0.008073865593267997</v>
+      </c>
+      <c r="H4">
+        <v>0.0417947502109162</v>
+      </c>
+      <c r="I4">
+        <v>0.03122913748966904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02626423162960415</v>
+        <v>0.03002468187729134</v>
       </c>
       <c r="C6">
-        <v>-0.01242390573673593</v>
+        <v>-0.02907054344595263</v>
       </c>
       <c r="D6">
-        <v>0.1449555412355228</v>
+        <v>0.1304177670029324</v>
       </c>
       <c r="E6">
-        <v>0.03110104391922325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.04457526090318895</v>
+      </c>
+      <c r="F6">
+        <v>-0.05222788278863046</v>
+      </c>
+      <c r="G6">
+        <v>0.01924048222331685</v>
+      </c>
+      <c r="H6">
+        <v>0.05926572863491569</v>
+      </c>
+      <c r="I6">
+        <v>-0.01575377526720871</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.008872725849943789</v>
+        <v>0.01020701874345224</v>
       </c>
       <c r="C7">
-        <v>-0.02371981021611133</v>
+        <v>-0.03360871314653639</v>
       </c>
       <c r="D7">
-        <v>0.1142537320977908</v>
+        <v>0.1028387815884034</v>
       </c>
       <c r="E7">
-        <v>-0.004263355479842141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.04731765358405799</v>
+      </c>
+      <c r="F7">
+        <v>-0.007211169741443669</v>
+      </c>
+      <c r="G7">
+        <v>0.0006798131252568684</v>
+      </c>
+      <c r="H7">
+        <v>0.07090640761376947</v>
+      </c>
+      <c r="I7">
+        <v>-0.02355033655812834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.0009345514205769477</v>
+        <v>-0.00874097254570062</v>
       </c>
       <c r="C8">
-        <v>-0.02773748716149852</v>
+        <v>-0.03344911646698427</v>
       </c>
       <c r="D8">
-        <v>0.08260947543909858</v>
+        <v>0.08208323997826851</v>
       </c>
       <c r="E8">
-        <v>0.0196168755694459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01821654898084926</v>
+      </c>
+      <c r="F8">
+        <v>-0.04166513124576975</v>
+      </c>
+      <c r="G8">
+        <v>0.06957751987080722</v>
+      </c>
+      <c r="H8">
+        <v>-0.002549416841346431</v>
+      </c>
+      <c r="I8">
+        <v>-0.03442861840293283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.04012096890997405</v>
+        <v>0.01769260124734885</v>
       </c>
       <c r="C9">
-        <v>-0.06086300430474995</v>
+        <v>-0.08386068644049206</v>
       </c>
       <c r="D9">
-        <v>0.135389004621661</v>
+        <v>0.1231418134652921</v>
       </c>
       <c r="E9">
-        <v>0.05632989580046889</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.004996713996856089</v>
+      </c>
+      <c r="F9">
+        <v>-0.0576390833850779</v>
+      </c>
+      <c r="G9">
+        <v>-0.01036857009599862</v>
+      </c>
+      <c r="H9">
+        <v>0.05636108144591</v>
+      </c>
+      <c r="I9">
+        <v>0.001183153798173173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1453227906387044</v>
+        <v>0.2254235077486279</v>
       </c>
       <c r="C10">
-        <v>0.1867828898425796</v>
+        <v>0.1074340968435199</v>
       </c>
       <c r="D10">
-        <v>0.01847665068185556</v>
+        <v>-0.001148671341247162</v>
       </c>
       <c r="E10">
-        <v>0.04787901637120922</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02326673258995371</v>
+      </c>
+      <c r="F10">
+        <v>-0.03958804447742909</v>
+      </c>
+      <c r="G10">
+        <v>-0.005075991437806107</v>
+      </c>
+      <c r="H10">
+        <v>-0.05924491880011225</v>
+      </c>
+      <c r="I10">
+        <v>-0.1248972784507048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.02400479165335751</v>
+        <v>0.01022702782319171</v>
       </c>
       <c r="C11">
-        <v>-0.04049431829722748</v>
+        <v>-0.05231237197003273</v>
       </c>
       <c r="D11">
-        <v>0.05292854153664871</v>
+        <v>0.04629963796225305</v>
       </c>
       <c r="E11">
-        <v>-0.01617144647700764</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01884020212505629</v>
+      </c>
+      <c r="F11">
+        <v>0.01005243692780144</v>
+      </c>
+      <c r="G11">
+        <v>-0.002000191575497304</v>
+      </c>
+      <c r="H11">
+        <v>0.05022246387524495</v>
+      </c>
+      <c r="I11">
+        <v>0.02932818941311492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02628305282040366</v>
+        <v>0.01164471387161637</v>
       </c>
       <c r="C12">
-        <v>-0.04009407401989198</v>
+        <v>-0.04958749212666538</v>
       </c>
       <c r="D12">
-        <v>0.06615912030738762</v>
+        <v>0.05021986195757418</v>
       </c>
       <c r="E12">
-        <v>-0.006829259901890363</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0149571367411763</v>
+      </c>
+      <c r="F12">
+        <v>0.01429725526565337</v>
+      </c>
+      <c r="G12">
+        <v>-0.0162801166321094</v>
+      </c>
+      <c r="H12">
+        <v>0.07450107319196739</v>
+      </c>
+      <c r="I12">
+        <v>0.01524099709069624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.008157144806882562</v>
+        <v>0.004582263027209387</v>
       </c>
       <c r="C13">
-        <v>-0.02869487816933401</v>
+        <v>-0.04511357235734528</v>
       </c>
       <c r="D13">
-        <v>0.1556524327618207</v>
+        <v>0.1521834276084705</v>
       </c>
       <c r="E13">
-        <v>0.02358173033460889</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.0334015574681542</v>
+      </c>
+      <c r="F13">
+        <v>-0.0322806866220255</v>
+      </c>
+      <c r="G13">
+        <v>0.04144154521210278</v>
+      </c>
+      <c r="H13">
+        <v>0.06938688202637106</v>
+      </c>
+      <c r="I13">
+        <v>-0.08186656845703666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.001904038702366454</v>
+        <v>0.001455249861764131</v>
       </c>
       <c r="C14">
-        <v>-0.02212048772151348</v>
+        <v>-0.02888065919634262</v>
       </c>
       <c r="D14">
-        <v>0.1073010467429789</v>
+        <v>0.1037043146401289</v>
       </c>
       <c r="E14">
-        <v>0.009158361355869518</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.02777570338009234</v>
+      </c>
+      <c r="F14">
+        <v>-0.0241456618379138</v>
+      </c>
+      <c r="G14">
+        <v>0.02299601201490497</v>
+      </c>
+      <c r="H14">
+        <v>0.1174787486288417</v>
+      </c>
+      <c r="I14">
+        <v>-0.01990365879053051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.001085092101438097</v>
+        <v>-0.0008209234529588568</v>
       </c>
       <c r="C15">
-        <v>-0.01089285437245095</v>
+        <v>-0.01918798116649513</v>
       </c>
       <c r="D15">
-        <v>0.02423812797141306</v>
+        <v>0.05121818009902768</v>
       </c>
       <c r="E15">
-        <v>-0.006027445534488833</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.005281757075686737</v>
+      </c>
+      <c r="F15">
+        <v>-0.002337432712916282</v>
+      </c>
+      <c r="G15">
+        <v>0.02026796488886094</v>
+      </c>
+      <c r="H15">
+        <v>0.01494205668218905</v>
+      </c>
+      <c r="I15">
+        <v>0.02043112493227099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.02350342860179521</v>
+        <v>0.01083660658382752</v>
       </c>
       <c r="C16">
-        <v>-0.03808879119536495</v>
+        <v>-0.04799482411071115</v>
       </c>
       <c r="D16">
-        <v>0.06020377504661309</v>
+        <v>0.0475959366998186</v>
       </c>
       <c r="E16">
-        <v>-0.009818867758805879</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.01978134367720004</v>
+      </c>
+      <c r="F16">
+        <v>0.006682582332429906</v>
+      </c>
+      <c r="G16">
+        <v>-0.01190724449252576</v>
+      </c>
+      <c r="H16">
+        <v>0.05536962474181376</v>
+      </c>
+      <c r="I16">
+        <v>0.02597141280912921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.009066261745360259</v>
+        <v>0.0008018228895040532</v>
       </c>
       <c r="C19">
-        <v>-0.02663372049130522</v>
+        <v>-0.02420083080038669</v>
       </c>
       <c r="D19">
-        <v>0.1287922211067047</v>
+        <v>0.08192926093733972</v>
       </c>
       <c r="E19">
-        <v>0.04153715531983063</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.01980664908072239</v>
+      </c>
+      <c r="F19">
+        <v>-0.008148228865550295</v>
+      </c>
+      <c r="G19">
+        <v>0.02245419897702012</v>
+      </c>
+      <c r="H19">
+        <v>0.0748034178840519</v>
+      </c>
+      <c r="I19">
+        <v>-0.03849236238664117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.006172776463862165</v>
+        <v>0.004626270723864415</v>
       </c>
       <c r="C20">
-        <v>-0.02766671253935521</v>
+        <v>-0.03905773419829224</v>
       </c>
       <c r="D20">
-        <v>0.09522473390356241</v>
+        <v>0.09999468132528765</v>
       </c>
       <c r="E20">
-        <v>0.03232267858260905</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.004912617895477731</v>
+      </c>
+      <c r="F20">
+        <v>-0.02754359570658023</v>
+      </c>
+      <c r="G20">
+        <v>0.007367517023549068</v>
+      </c>
+      <c r="H20">
+        <v>0.05827640521309715</v>
+      </c>
+      <c r="I20">
+        <v>-0.005042040925445806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.009546040312211972</v>
+        <v>0.003662737767237358</v>
       </c>
       <c r="C21">
-        <v>-0.03452247664732572</v>
+        <v>-0.04271406346278592</v>
       </c>
       <c r="D21">
-        <v>0.1725287037644176</v>
+        <v>0.1396702288283948</v>
       </c>
       <c r="E21">
-        <v>0.06566897815304511</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.003583194856984808</v>
+      </c>
+      <c r="F21">
+        <v>-0.07415678333051781</v>
+      </c>
+      <c r="G21">
+        <v>0.03216941991558144</v>
+      </c>
+      <c r="H21">
+        <v>0.1702671249849186</v>
+      </c>
+      <c r="I21">
+        <v>-0.1198207563007416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.003377614941630718</v>
+        <v>-0.009742730209396255</v>
       </c>
       <c r="C22">
-        <v>-0.06147403755852311</v>
+        <v>-0.07954644047130208</v>
       </c>
       <c r="D22">
-        <v>0.201253434729674</v>
+        <v>0.2513000031037456</v>
       </c>
       <c r="E22">
-        <v>-0.04204557324320833</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.04172534317560267</v>
+      </c>
+      <c r="F22">
+        <v>-0.02541647330212483</v>
+      </c>
+      <c r="G22">
+        <v>0.307815917391207</v>
+      </c>
+      <c r="H22">
+        <v>-0.4290643686999027</v>
+      </c>
+      <c r="I22">
+        <v>0.1224449292053815</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.003647257916424562</v>
+        <v>-0.009297260434990302</v>
       </c>
       <c r="C23">
-        <v>-0.0619294225141948</v>
+        <v>-0.08046800384547874</v>
       </c>
       <c r="D23">
-        <v>0.2008307625547337</v>
+        <v>0.2519171022798876</v>
       </c>
       <c r="E23">
-        <v>-0.04185172453429609</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.03867773551144156</v>
+      </c>
+      <c r="F23">
+        <v>-0.02470899132710793</v>
+      </c>
+      <c r="G23">
+        <v>0.306480847889419</v>
+      </c>
+      <c r="H23">
+        <v>-0.4293533442535664</v>
+      </c>
+      <c r="I23">
+        <v>0.1241990854353104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.03115396571944046</v>
+        <v>0.01098837234635909</v>
       </c>
       <c r="C24">
-        <v>-0.0549771010255008</v>
+        <v>-0.06463463385178161</v>
       </c>
       <c r="D24">
-        <v>0.07231371751738393</v>
+        <v>0.05591856574760577</v>
       </c>
       <c r="E24">
-        <v>-0.006100993104022468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02296689652209012</v>
+      </c>
+      <c r="F24">
+        <v>0.003959427646720012</v>
+      </c>
+      <c r="G24">
+        <v>-0.002954583361252564</v>
+      </c>
+      <c r="H24">
+        <v>0.07879366788014482</v>
+      </c>
+      <c r="I24">
+        <v>0.02512963244356319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.0330020341396691</v>
+        <v>0.01452805727540286</v>
       </c>
       <c r="C25">
-        <v>-0.04624995042011541</v>
+        <v>-0.06000896103224452</v>
       </c>
       <c r="D25">
-        <v>0.06517750499023726</v>
+        <v>0.05254593493964886</v>
       </c>
       <c r="E25">
-        <v>-0.0004172373707591486</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.009491757339779902</v>
+      </c>
+      <c r="F25">
+        <v>0.006206075476578755</v>
+      </c>
+      <c r="G25">
+        <v>-0.01136548754364902</v>
+      </c>
+      <c r="H25">
+        <v>0.04766765251199211</v>
+      </c>
+      <c r="I25">
+        <v>0.01647339902022631</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.008816455833711911</v>
+        <v>0.008534686352910227</v>
       </c>
       <c r="C26">
-        <v>-0.01677404628232165</v>
+        <v>-0.02588143424034923</v>
       </c>
       <c r="D26">
-        <v>0.08320040315764507</v>
+        <v>0.07115577119700515</v>
       </c>
       <c r="E26">
-        <v>0.01554079665535241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.0220526746372279</v>
+      </c>
+      <c r="F26">
+        <v>-0.02364056917105344</v>
+      </c>
+      <c r="G26">
+        <v>0.004993283068126249</v>
+      </c>
+      <c r="H26">
+        <v>0.08204924700359266</v>
+      </c>
+      <c r="I26">
+        <v>-0.05290964770872092</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2251520830402844</v>
+        <v>0.3178129287477159</v>
       </c>
       <c r="C28">
-        <v>0.2353882242024374</v>
+        <v>0.1183962730477521</v>
       </c>
       <c r="D28">
-        <v>0.02463364223707293</v>
+        <v>-0.009356894957497836</v>
       </c>
       <c r="E28">
-        <v>0.06988735987926681</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.04932373257597024</v>
+      </c>
+      <c r="F28">
+        <v>-0.0385852666903695</v>
+      </c>
+      <c r="G28">
+        <v>0.01996658340779223</v>
+      </c>
+      <c r="H28">
+        <v>-0.02673577708984657</v>
+      </c>
+      <c r="I28">
+        <v>-0.1358908029175523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.002023397305570131</v>
+        <v>0.0009791070718336782</v>
       </c>
       <c r="C29">
-        <v>-0.02301877263816587</v>
+        <v>-0.03093716161472344</v>
       </c>
       <c r="D29">
-        <v>0.1027369461908093</v>
+        <v>0.09819860340658899</v>
       </c>
       <c r="E29">
-        <v>0.01063307923141779</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.03881770115462342</v>
+      </c>
+      <c r="F29">
+        <v>-0.02966844447008825</v>
+      </c>
+      <c r="G29">
+        <v>0.01057646300453723</v>
+      </c>
+      <c r="H29">
+        <v>0.1191865311603273</v>
+      </c>
+      <c r="I29">
+        <v>-0.0227571038627237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.03070676604306062</v>
+        <v>0.01924491007380179</v>
       </c>
       <c r="C30">
-        <v>-0.05887705071188293</v>
+        <v>-0.08364838557298029</v>
       </c>
       <c r="D30">
-        <v>0.1670607287809709</v>
+        <v>0.1630409596890274</v>
       </c>
       <c r="E30">
-        <v>0.01116309238658907</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04127589818769643</v>
+      </c>
+      <c r="F30">
+        <v>-0.03279224262390847</v>
+      </c>
+      <c r="G30">
+        <v>0.03089055608725642</v>
+      </c>
+      <c r="H30">
+        <v>0.04184128329213539</v>
+      </c>
+      <c r="I30">
+        <v>0.06344033023576065</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.04997031120982059</v>
+        <v>0.01197996142859364</v>
       </c>
       <c r="C31">
-        <v>-0.08317701616829044</v>
+        <v>-0.09261291674486764</v>
       </c>
       <c r="D31">
-        <v>0.07478838362383207</v>
+        <v>0.04497417364511056</v>
       </c>
       <c r="E31">
-        <v>0.01370534917314018</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.007702277582975455</v>
+      </c>
+      <c r="F31">
+        <v>-0.01513897992087531</v>
+      </c>
+      <c r="G31">
+        <v>0.01012493568875429</v>
+      </c>
+      <c r="H31">
+        <v>0.04842111443752287</v>
+      </c>
+      <c r="I31">
+        <v>-0.07736376678140125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.02140872155175288</v>
+        <v>0.01069452103097228</v>
       </c>
       <c r="C32">
-        <v>-0.03677551883893723</v>
+        <v>-0.04523789085367793</v>
       </c>
       <c r="D32">
-        <v>0.1068945370771481</v>
+        <v>0.1116450427890882</v>
       </c>
       <c r="E32">
-        <v>0.06131930419940257</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.008183267605913832</v>
+      </c>
+      <c r="F32">
+        <v>-0.04446420380137989</v>
+      </c>
+      <c r="G32">
+        <v>0.03292368465501797</v>
+      </c>
+      <c r="H32">
+        <v>0.03152950329703707</v>
+      </c>
+      <c r="I32">
+        <v>-0.07592285406126716</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.01791010537944778</v>
+        <v>0.008514781123068705</v>
       </c>
       <c r="C33">
-        <v>-0.04304596315138311</v>
+        <v>-0.05702513701300954</v>
       </c>
       <c r="D33">
-        <v>0.1522005643057757</v>
+        <v>0.1308053837313545</v>
       </c>
       <c r="E33">
-        <v>0.03813462741177721</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.01063928863478884</v>
+      </c>
+      <c r="F33">
+        <v>-0.02846089375812381</v>
+      </c>
+      <c r="G33">
+        <v>0.01894860665276658</v>
+      </c>
+      <c r="H33">
+        <v>0.07056201290035514</v>
+      </c>
+      <c r="I33">
+        <v>-0.02094609033229659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02793346980252775</v>
+        <v>0.007521308809450216</v>
       </c>
       <c r="C34">
-        <v>-0.05637618131406989</v>
+        <v>-0.061278534616815</v>
       </c>
       <c r="D34">
-        <v>0.05080182107660404</v>
+        <v>0.03332604564983353</v>
       </c>
       <c r="E34">
-        <v>-0.04737346596805802</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02803376579141537</v>
+      </c>
+      <c r="F34">
+        <v>0.03344155977372219</v>
+      </c>
+      <c r="G34">
+        <v>-0.005332587971584214</v>
+      </c>
+      <c r="H34">
+        <v>0.06182416774572891</v>
+      </c>
+      <c r="I34">
+        <v>0.002865879358956191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001369926503204341</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.00455875495471732</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.01484178239080896</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.003384594393457499</v>
+      </c>
+      <c r="F35">
+        <v>-0.0014786622845937</v>
+      </c>
+      <c r="G35">
+        <v>-0.001798364974001322</v>
+      </c>
+      <c r="H35">
+        <v>0.0122847638123953</v>
+      </c>
+      <c r="I35">
+        <v>0.005275410708015793</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.008903548928758092</v>
+        <v>0.00928398821043265</v>
       </c>
       <c r="C36">
-        <v>-0.007930614342006334</v>
+        <v>-0.02000485000359641</v>
       </c>
       <c r="D36">
-        <v>0.09653536107491978</v>
+        <v>0.08033897577342702</v>
       </c>
       <c r="E36">
-        <v>0.03969741572497488</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.00508678008283674</v>
+      </c>
+      <c r="F36">
+        <v>-0.03587866846747746</v>
+      </c>
+      <c r="G36">
+        <v>0.007909850680733009</v>
+      </c>
+      <c r="H36">
+        <v>0.06047331674363376</v>
+      </c>
+      <c r="I36">
+        <v>-0.03435063377578961</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.00811682430031967</v>
+        <v>0.01494716326129251</v>
       </c>
       <c r="C38">
-        <v>-0.008662345942108463</v>
+        <v>-0.01557490577611091</v>
       </c>
       <c r="D38">
-        <v>0.08796202287535276</v>
+        <v>0.08419437924686472</v>
       </c>
       <c r="E38">
-        <v>0.009703439445808031</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.01306430009228857</v>
+      </c>
+      <c r="F38">
+        <v>0.007359454173917105</v>
+      </c>
+      <c r="G38">
+        <v>0.02964272689818751</v>
+      </c>
+      <c r="H38">
+        <v>0.05179253926274655</v>
+      </c>
+      <c r="I38">
+        <v>-0.03493387098432602</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.02447613407802091</v>
+        <v>0.007496503871568513</v>
       </c>
       <c r="C39">
-        <v>-0.05687130895203387</v>
+        <v>-0.07526400974714462</v>
       </c>
       <c r="D39">
-        <v>0.1183870739841792</v>
+        <v>0.1083478130606419</v>
       </c>
       <c r="E39">
-        <v>-0.02346534814014618</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.04682374762302887</v>
+      </c>
+      <c r="F39">
+        <v>0.004224180911765222</v>
+      </c>
+      <c r="G39">
+        <v>-0.003954690855914714</v>
+      </c>
+      <c r="H39">
+        <v>0.1016346702979749</v>
+      </c>
+      <c r="I39">
+        <v>0.058258432210225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01295602179063724</v>
+        <v>0.01235724686644039</v>
       </c>
       <c r="C40">
-        <v>-0.01792233740091711</v>
+        <v>-0.02624113078989251</v>
       </c>
       <c r="D40">
-        <v>0.114173835037579</v>
+        <v>0.09614910078442286</v>
       </c>
       <c r="E40">
-        <v>-0.02530783619257439</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.03885444559028276</v>
+      </c>
+      <c r="F40">
+        <v>0.025376218354847</v>
+      </c>
+      <c r="G40">
+        <v>0.07694999295858621</v>
+      </c>
+      <c r="H40">
+        <v>0.06696626939957552</v>
+      </c>
+      <c r="I40">
+        <v>-0.06287897492789378</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01282306077260374</v>
+        <v>0.01149620044496404</v>
       </c>
       <c r="C41">
-        <v>-0.009776576642382599</v>
+        <v>-0.0177771905664572</v>
       </c>
       <c r="D41">
-        <v>0.06536562105448372</v>
+        <v>0.04655225267983922</v>
       </c>
       <c r="E41">
-        <v>0.03701303233674646</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0250837337697948</v>
+      </c>
+      <c r="F41">
+        <v>-0.01998140704943573</v>
+      </c>
+      <c r="G41">
+        <v>0.02461474422659491</v>
+      </c>
+      <c r="H41">
+        <v>0.04941365347972951</v>
+      </c>
+      <c r="I41">
+        <v>-0.05141307295975677</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.007211851123824655</v>
+        <v>0.005160020303266679</v>
       </c>
       <c r="C43">
-        <v>-0.0137615614231321</v>
+        <v>-0.01856316174830385</v>
       </c>
       <c r="D43">
-        <v>0.07983859766751007</v>
+        <v>0.05896768508172715</v>
       </c>
       <c r="E43">
-        <v>0.02858394562031359</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.00973436584357199</v>
+      </c>
+      <c r="F43">
+        <v>-0.01910080206882129</v>
+      </c>
+      <c r="G43">
+        <v>0.02834539820434653</v>
+      </c>
+      <c r="H43">
+        <v>0.07602097788789758</v>
+      </c>
+      <c r="I43">
+        <v>-0.04620758832198936</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.0203630127651062</v>
+        <v>0.01316107787679551</v>
       </c>
       <c r="C44">
-        <v>-0.0272117375954494</v>
+        <v>-0.04731880774527211</v>
       </c>
       <c r="D44">
-        <v>0.1142925763448359</v>
+        <v>0.1177572953355341</v>
       </c>
       <c r="E44">
-        <v>0.0353737315635514</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.0191597432079489</v>
+      </c>
+      <c r="F44">
+        <v>-0.02263462705291111</v>
+      </c>
+      <c r="G44">
+        <v>0.02368735928714565</v>
+      </c>
+      <c r="H44">
+        <v>0.04119029483066213</v>
+      </c>
+      <c r="I44">
+        <v>0.06037363472340866</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.01177220569861298</v>
+        <v>-0.000211996238848179</v>
       </c>
       <c r="C46">
-        <v>-0.0312850175868485</v>
+        <v>-0.04169270887814661</v>
       </c>
       <c r="D46">
-        <v>0.1010939004969288</v>
+        <v>0.08598578889715471</v>
       </c>
       <c r="E46">
-        <v>0.0190221847842625</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0214973539999885</v>
+      </c>
+      <c r="F46">
+        <v>-0.02847934411178401</v>
+      </c>
+      <c r="G46">
+        <v>0.02885134582399714</v>
+      </c>
+      <c r="H46">
+        <v>0.133598633924345</v>
+      </c>
+      <c r="I46">
+        <v>-0.02747776142530585</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09381941409074201</v>
+        <v>0.03966177999394005</v>
       </c>
       <c r="C47">
-        <v>-0.09821503999899997</v>
+        <v>-0.1226075120087072</v>
       </c>
       <c r="D47">
-        <v>0.06052894363214763</v>
+        <v>0.02479168905920836</v>
       </c>
       <c r="E47">
-        <v>0.02773052194046122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01982196466366588</v>
+      </c>
+      <c r="F47">
+        <v>0.01146565384406772</v>
+      </c>
+      <c r="G47">
+        <v>-0.04156144255108878</v>
+      </c>
+      <c r="H47">
+        <v>0.04397316725995676</v>
+      </c>
+      <c r="I47">
+        <v>-0.135847370080299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.006528201190057584</v>
+        <v>0.007048408551175359</v>
       </c>
       <c r="C48">
-        <v>-0.01817207001560056</v>
+        <v>-0.02814624280366474</v>
       </c>
       <c r="D48">
-        <v>0.09629827696926536</v>
+        <v>0.08322048871148501</v>
       </c>
       <c r="E48">
-        <v>0.05242863611528852</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.007965597110659936</v>
+      </c>
+      <c r="F48">
+        <v>-0.0399529138769998</v>
+      </c>
+      <c r="G48">
+        <v>0.01712446485889941</v>
+      </c>
+      <c r="H48">
+        <v>0.08921039703715021</v>
+      </c>
+      <c r="I48">
+        <v>-0.02678814432475092</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.04596768716804766</v>
+        <v>0.01419851429125335</v>
       </c>
       <c r="C50">
-        <v>-0.06051188143503705</v>
+        <v>-0.0749466001090224</v>
       </c>
       <c r="D50">
-        <v>0.07391203553310442</v>
+        <v>0.05014526664405186</v>
       </c>
       <c r="E50">
-        <v>0.01041742060753083</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.0004896076241722953</v>
+      </c>
+      <c r="F50">
+        <v>-0.009713273684193283</v>
+      </c>
+      <c r="G50">
+        <v>0.02940861050002189</v>
+      </c>
+      <c r="H50">
+        <v>0.03756898906918257</v>
+      </c>
+      <c r="I50">
+        <v>-0.1284569562105755</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.005035810102173003</v>
+        <v>0.003742127944729004</v>
       </c>
       <c r="C51">
-        <v>-0.005672807233090189</v>
+        <v>-0.0175400459787704</v>
       </c>
       <c r="D51">
-        <v>0.06542159660656278</v>
+        <v>0.07050014486698017</v>
       </c>
       <c r="E51">
-        <v>-0.0008210372705765146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03709171980197377</v>
+      </c>
+      <c r="F51">
+        <v>-0.03562780136804076</v>
+      </c>
+      <c r="G51">
+        <v>0.03935148881640784</v>
+      </c>
+      <c r="H51">
+        <v>0.04175390505561697</v>
+      </c>
+      <c r="I51">
+        <v>-0.003690973018953827</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1203309905794381</v>
+        <v>0.06296273313855302</v>
       </c>
       <c r="C53">
-        <v>-0.1112631103847891</v>
+        <v>-0.1549850106129738</v>
       </c>
       <c r="D53">
-        <v>0.02138648362832545</v>
+        <v>-0.01218606602082668</v>
       </c>
       <c r="E53">
-        <v>0.05821114237839205</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03484131667588705</v>
+      </c>
+      <c r="F53">
+        <v>-0.04966463225649467</v>
+      </c>
+      <c r="G53">
+        <v>0.01004174538562192</v>
+      </c>
+      <c r="H53">
+        <v>0.00168771903670025</v>
+      </c>
+      <c r="I53">
+        <v>-0.08822440088264186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01964481585996583</v>
+        <v>0.01190009032455942</v>
       </c>
       <c r="C54">
-        <v>-0.02365963220062757</v>
+        <v>-0.04064005536100896</v>
       </c>
       <c r="D54">
-        <v>0.1088520256037911</v>
+        <v>0.08533406253752564</v>
       </c>
       <c r="E54">
-        <v>0.002257882573404043</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.009435225953551684</v>
+      </c>
+      <c r="F54">
+        <v>0.001832249368001724</v>
+      </c>
+      <c r="G54">
+        <v>0.03236317564286111</v>
+      </c>
+      <c r="H54">
+        <v>0.09154751460871459</v>
+      </c>
+      <c r="I54">
+        <v>-0.05463403889198038</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1060231593191751</v>
+        <v>0.05036177781690664</v>
       </c>
       <c r="C55">
-        <v>-0.09260842234226756</v>
+        <v>-0.1259913055038055</v>
       </c>
       <c r="D55">
-        <v>0.007283400580421883</v>
+        <v>-0.02573912139200604</v>
       </c>
       <c r="E55">
-        <v>0.01492001429131381</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.0002153382624991059</v>
+      </c>
+      <c r="F55">
+        <v>-0.01748736217636297</v>
+      </c>
+      <c r="G55">
+        <v>0.01835746900970699</v>
+      </c>
+      <c r="H55">
+        <v>0.008629549607163799</v>
+      </c>
+      <c r="I55">
+        <v>-0.08958933788309691</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1481316742633159</v>
+        <v>0.0706407028851984</v>
       </c>
       <c r="C56">
-        <v>-0.1213355322762283</v>
+        <v>-0.1824010935735944</v>
       </c>
       <c r="D56">
-        <v>0.005263053278490597</v>
+        <v>-0.02413276259124195</v>
       </c>
       <c r="E56">
-        <v>0.01776169475153775</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03123929627384152</v>
+      </c>
+      <c r="F56">
+        <v>-0.01566519989802179</v>
+      </c>
+      <c r="G56">
+        <v>0.05844795339722478</v>
+      </c>
+      <c r="H56">
+        <v>-0.01156226414735786</v>
+      </c>
+      <c r="I56">
+        <v>-0.1089583111113579</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.002495821326055135</v>
+        <v>0.007241820584404698</v>
       </c>
       <c r="C58">
-        <v>-0.01881968638301748</v>
+        <v>-0.04906150936247017</v>
       </c>
       <c r="D58">
-        <v>0.226808284756045</v>
+        <v>0.2848604741274002</v>
       </c>
       <c r="E58">
-        <v>0.07192195477713595</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02544022114952436</v>
+      </c>
+      <c r="F58">
+        <v>-0.08844925141910015</v>
+      </c>
+      <c r="G58">
+        <v>0.1135349167302966</v>
+      </c>
+      <c r="H58">
+        <v>-0.1152160912638032</v>
+      </c>
+      <c r="I58">
+        <v>0.06918706884300518</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1569845648146313</v>
+        <v>0.2450093077687232</v>
       </c>
       <c r="C59">
-        <v>0.1724651580385825</v>
+        <v>0.08387014849824739</v>
       </c>
       <c r="D59">
-        <v>0.05267905431487507</v>
+        <v>0.05897631228663179</v>
       </c>
       <c r="E59">
-        <v>0.03473533301549095</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02906025734024561</v>
+      </c>
+      <c r="F59">
+        <v>-0.01258421457284359</v>
+      </c>
+      <c r="G59">
+        <v>-0.006189034081142272</v>
+      </c>
+      <c r="H59">
+        <v>-0.02112239085156623</v>
+      </c>
+      <c r="I59">
+        <v>-0.02640707948428025</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.2043431499916171</v>
+        <v>0.1561517128106579</v>
       </c>
       <c r="C60">
-        <v>-0.08240643985601528</v>
+        <v>-0.1688467846680819</v>
       </c>
       <c r="D60">
-        <v>0.1591910317976759</v>
+        <v>0.08618676677422334</v>
       </c>
       <c r="E60">
-        <v>-0.204958704965652</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.2313618197961803</v>
+      </c>
+      <c r="F60">
+        <v>0.1653508663846876</v>
+      </c>
+      <c r="G60">
+        <v>-0.2397325032525519</v>
+      </c>
+      <c r="H60">
+        <v>-0.1679412994719045</v>
+      </c>
+      <c r="I60">
+        <v>0.04153308072516827</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03495487828261972</v>
+        <v>0.01507502735954532</v>
       </c>
       <c r="C61">
-        <v>-0.05212666082746632</v>
+        <v>-0.07100666870891192</v>
       </c>
       <c r="D61">
-        <v>0.1109904223195806</v>
+        <v>0.08676014262715188</v>
       </c>
       <c r="E61">
-        <v>-0.008348027551524282</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03489534083915592</v>
+      </c>
+      <c r="F61">
+        <v>0.01252177923022714</v>
+      </c>
+      <c r="G61">
+        <v>-0.0194368913623509</v>
+      </c>
+      <c r="H61">
+        <v>0.09840794327036667</v>
+      </c>
+      <c r="I61">
+        <v>0.01393199434424056</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.01130845527226597</v>
+        <v>0.003871107953530596</v>
       </c>
       <c r="C63">
-        <v>-0.02594360217201911</v>
+        <v>-0.03587061782880131</v>
       </c>
       <c r="D63">
-        <v>0.09554210866369436</v>
+        <v>0.07239061168201748</v>
       </c>
       <c r="E63">
-        <v>0.01160929486484876</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02531592139793747</v>
+      </c>
+      <c r="F63">
+        <v>-0.02342984498739384</v>
+      </c>
+      <c r="G63">
+        <v>0.01680016079265518</v>
+      </c>
+      <c r="H63">
+        <v>0.06158524031764184</v>
+      </c>
+      <c r="I63">
+        <v>-0.008077146650424522</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.06779759175759539</v>
+        <v>0.0243755193290355</v>
       </c>
       <c r="C64">
-        <v>-0.07885360542289183</v>
+        <v>-0.1047184578645099</v>
       </c>
       <c r="D64">
-        <v>0.04420938915421935</v>
+        <v>0.03067219710399738</v>
       </c>
       <c r="E64">
-        <v>0.01933374436108087</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.026984393747965</v>
+      </c>
+      <c r="F64">
+        <v>-0.02492826747506996</v>
+      </c>
+      <c r="G64">
+        <v>-0.03824747171844286</v>
+      </c>
+      <c r="H64">
+        <v>0.1182938935545602</v>
+      </c>
+      <c r="I64">
+        <v>0.05551851986047694</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02888028469128261</v>
+        <v>0.02507552610409829</v>
       </c>
       <c r="C65">
-        <v>-0.01537342540273846</v>
+        <v>-0.03870053806190803</v>
       </c>
       <c r="D65">
-        <v>0.1201201008087152</v>
+        <v>0.11921099519168</v>
       </c>
       <c r="E65">
-        <v>0.0004973977363617743</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04510800306748176</v>
+      </c>
+      <c r="F65">
+        <v>-0.005577361542997157</v>
+      </c>
+      <c r="G65">
+        <v>-0.01322334952136626</v>
+      </c>
+      <c r="H65">
+        <v>0.04815340708784152</v>
+      </c>
+      <c r="I65">
+        <v>-0.003575503605196854</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02786132328077312</v>
+        <v>0.005707817431012312</v>
       </c>
       <c r="C66">
-        <v>-0.06330835135585426</v>
+        <v>-0.09001409266782553</v>
       </c>
       <c r="D66">
-        <v>0.122440478489857</v>
+        <v>0.1313392520069262</v>
       </c>
       <c r="E66">
-        <v>-0.02691829101724203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.0332603872391338</v>
+      </c>
+      <c r="F66">
+        <v>0.0133540141366753</v>
+      </c>
+      <c r="G66">
+        <v>0.006284255151720418</v>
+      </c>
+      <c r="H66">
+        <v>0.05599042314928708</v>
+      </c>
+      <c r="I66">
+        <v>0.06491928828656626</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02921236776794608</v>
+        <v>0.02574528001160686</v>
       </c>
       <c r="C67">
-        <v>-0.01803893788965361</v>
+        <v>-0.02789656653118795</v>
       </c>
       <c r="D67">
-        <v>0.04278429610931302</v>
+        <v>0.0338538803333698</v>
       </c>
       <c r="E67">
-        <v>-0.01436659008858678</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.002069265085532821</v>
+      </c>
+      <c r="F67">
+        <v>0.0292462670608626</v>
+      </c>
+      <c r="G67">
+        <v>0.01844048768532377</v>
+      </c>
+      <c r="H67">
+        <v>0.06468510760412616</v>
+      </c>
+      <c r="I67">
+        <v>-0.02590245843465176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.1809867130108913</v>
+        <v>0.2632378052986903</v>
       </c>
       <c r="C68">
-        <v>0.1845207615346291</v>
+        <v>0.0826996035189461</v>
       </c>
       <c r="D68">
-        <v>0.03228474826333903</v>
+        <v>0.03411061401451804</v>
       </c>
       <c r="E68">
-        <v>0.009863259388881364</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.007548495922193025</v>
+      </c>
+      <c r="F68">
+        <v>-0.02839088968873</v>
+      </c>
+      <c r="G68">
+        <v>0.05523449090240813</v>
+      </c>
+      <c r="H68">
+        <v>-0.05299343068546074</v>
+      </c>
+      <c r="I68">
+        <v>-0.09622571350661906</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07276853627059188</v>
+        <v>0.02495133493411001</v>
       </c>
       <c r="C69">
-        <v>-0.1116834745198809</v>
+        <v>-0.1202825698758824</v>
       </c>
       <c r="D69">
-        <v>0.08352957964524936</v>
+        <v>0.03834673934700757</v>
       </c>
       <c r="E69">
-        <v>0.01332941629638185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.001422493367462377</v>
+      </c>
+      <c r="F69">
+        <v>0.01261605144748573</v>
+      </c>
+      <c r="G69">
+        <v>-0.02590824427576</v>
+      </c>
+      <c r="H69">
+        <v>0.04524850363473819</v>
+      </c>
+      <c r="I69">
+        <v>-0.09590694751500495</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.1868622489712996</v>
+        <v>0.2652907164272923</v>
       </c>
       <c r="C71">
-        <v>0.2024189712126986</v>
+        <v>0.09728690591053989</v>
       </c>
       <c r="D71">
-        <v>0.03133143367815679</v>
+        <v>0.02155856857842902</v>
       </c>
       <c r="E71">
-        <v>0.01621761517379052</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.008902149746285972</v>
+      </c>
+      <c r="F71">
+        <v>-0.01787814738542193</v>
+      </c>
+      <c r="G71">
+        <v>0.04164785350922548</v>
+      </c>
+      <c r="H71">
+        <v>0.007188838132076975</v>
+      </c>
+      <c r="I71">
+        <v>-0.1652013102438946</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1154075521587922</v>
+        <v>0.06531756720417341</v>
       </c>
       <c r="C72">
-        <v>-0.06470402884820591</v>
+        <v>-0.1220263171251215</v>
       </c>
       <c r="D72">
-        <v>0.09672121363577058</v>
+        <v>0.06273153988448214</v>
       </c>
       <c r="E72">
-        <v>-0.05243170288313525</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.09035722147133611</v>
+      </c>
+      <c r="F72">
+        <v>0.01684459246751389</v>
+      </c>
+      <c r="G72">
+        <v>-0.02791503538254374</v>
+      </c>
+      <c r="H72">
+        <v>0.05789442137734125</v>
+      </c>
+      <c r="I72">
+        <v>0.03524085854336715</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1855368513590595</v>
+        <v>0.1438770701612253</v>
       </c>
       <c r="C73">
-        <v>-0.04097256738596473</v>
+        <v>-0.1343843420823971</v>
       </c>
       <c r="D73">
-        <v>0.2136893383562089</v>
+        <v>0.09210535437185143</v>
       </c>
       <c r="E73">
-        <v>-0.3168461673307319</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.3872173402255828</v>
+      </c>
+      <c r="F73">
+        <v>0.2510955119320056</v>
+      </c>
+      <c r="G73">
+        <v>-0.4436158791644479</v>
+      </c>
+      <c r="H73">
+        <v>-0.123546594250401</v>
+      </c>
+      <c r="I73">
+        <v>0.06797023119004843</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1187408938512186</v>
+        <v>0.05803270442398507</v>
       </c>
       <c r="C74">
-        <v>-0.09982999406315433</v>
+        <v>-0.1416042423737964</v>
       </c>
       <c r="D74">
-        <v>-0.02071135052961375</v>
+        <v>-0.04135917969045847</v>
       </c>
       <c r="E74">
-        <v>0.04550887437844493</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01355947174620843</v>
+      </c>
+      <c r="F74">
+        <v>-0.04702215087291768</v>
+      </c>
+      <c r="G74">
+        <v>0.005452187034884159</v>
+      </c>
+      <c r="H74">
+        <v>-0.00980186735695779</v>
+      </c>
+      <c r="I74">
+        <v>-0.113963483363558</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2563828767950524</v>
+        <v>0.1306548979366686</v>
       </c>
       <c r="C75">
-        <v>-0.1683502499713468</v>
+        <v>-0.2631726414047175</v>
       </c>
       <c r="D75">
-        <v>-0.1038002836985197</v>
+        <v>-0.1360994877322662</v>
       </c>
       <c r="E75">
-        <v>-0.00117891999146177</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08669510048769309</v>
+      </c>
+      <c r="F75">
+        <v>0.03416924861158314</v>
+      </c>
+      <c r="G75">
+        <v>0.1001858728236392</v>
+      </c>
+      <c r="H75">
+        <v>-0.01417707586135111</v>
+      </c>
+      <c r="I75">
+        <v>-0.0913526128713313</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1569718114797641</v>
+        <v>0.07310332709206666</v>
       </c>
       <c r="C76">
-        <v>-0.1222827485270087</v>
+        <v>-0.1811655564668214</v>
       </c>
       <c r="D76">
-        <v>0.01819278228979927</v>
+        <v>-0.03006162567333786</v>
       </c>
       <c r="E76">
-        <v>0.01814917693528966</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02834650334687656</v>
+      </c>
+      <c r="F76">
+        <v>-0.007659198904951642</v>
+      </c>
+      <c r="G76">
+        <v>0.05534817440583076</v>
+      </c>
+      <c r="H76">
+        <v>0.03273960432592263</v>
+      </c>
+      <c r="I76">
+        <v>-0.1163622535549936</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02696679913539589</v>
+        <v>0.03211244109660168</v>
       </c>
       <c r="C77">
-        <v>-0.08078547261592611</v>
+        <v>-0.09371924796041689</v>
       </c>
       <c r="D77">
-        <v>0.07788006704404066</v>
+        <v>0.2489061100819741</v>
       </c>
       <c r="E77">
-        <v>0.227240962436147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7615030956605079</v>
+      </c>
+      <c r="F77">
+        <v>0.3333456785018448</v>
+      </c>
+      <c r="G77">
+        <v>-0.3253945264074522</v>
+      </c>
+      <c r="H77">
+        <v>-0.2214658001058475</v>
+      </c>
+      <c r="I77">
+        <v>-0.03985455073969534</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.03338063286005652</v>
+        <v>0.01801262194570944</v>
       </c>
       <c r="C78">
-        <v>-0.06788701677860273</v>
+        <v>-0.08729323675529822</v>
       </c>
       <c r="D78">
-        <v>0.1543167554674941</v>
+        <v>0.1404530044995881</v>
       </c>
       <c r="E78">
-        <v>0.02900767243534082</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.04325190822738487</v>
+      </c>
+      <c r="F78">
+        <v>-0.04492087389270426</v>
+      </c>
+      <c r="G78">
+        <v>0.03890147769293865</v>
+      </c>
+      <c r="H78">
+        <v>0.01291143872825438</v>
+      </c>
+      <c r="I78">
+        <v>-0.02128541379107653</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.104250756583859</v>
+        <v>0.04275220844223165</v>
       </c>
       <c r="C79">
-        <v>-0.1489683337076163</v>
+        <v>-0.1774114822866506</v>
       </c>
       <c r="D79">
-        <v>-0.09197342631942977</v>
+        <v>-0.06674241819689512</v>
       </c>
       <c r="E79">
-        <v>0.7687273853172724</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1109828468331292</v>
+      </c>
+      <c r="F79">
+        <v>-0.8037858777479643</v>
+      </c>
+      <c r="G79">
+        <v>-0.4111931517715822</v>
+      </c>
+      <c r="H79">
+        <v>-0.191751130225443</v>
+      </c>
+      <c r="I79">
+        <v>0.1551976637813763</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.009624513051935263</v>
+        <v>-0.0001826959140816018</v>
       </c>
       <c r="C80">
-        <v>-0.04874589300385229</v>
+        <v>-0.04845922068383623</v>
       </c>
       <c r="D80">
-        <v>0.04671481602979519</v>
+        <v>0.04494161940488173</v>
       </c>
       <c r="E80">
-        <v>-0.004456868043630222</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.0202417643126418</v>
+      </c>
+      <c r="F80">
+        <v>-0.008907381688187509</v>
+      </c>
+      <c r="G80">
+        <v>0.04163136847087402</v>
+      </c>
+      <c r="H80">
+        <v>0.0171696825744045</v>
+      </c>
+      <c r="I80">
+        <v>-0.05401454003597306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1351513768570833</v>
+        <v>0.05640363840041137</v>
       </c>
       <c r="C81">
-        <v>-0.1175009572305388</v>
+        <v>-0.1641698980746918</v>
       </c>
       <c r="D81">
-        <v>-0.06198959486539727</v>
+        <v>-0.07751912019676664</v>
       </c>
       <c r="E81">
-        <v>0.07340864018534947</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.06936372650253529</v>
+      </c>
+      <c r="F81">
+        <v>-0.04523925076000637</v>
+      </c>
+      <c r="G81">
+        <v>0.05184855424121328</v>
+      </c>
+      <c r="H81">
+        <v>0.05692488408019051</v>
+      </c>
+      <c r="I81">
+        <v>-0.1323048036850278</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2847211987365385</v>
+        <v>0.1163828005140616</v>
       </c>
       <c r="C82">
-        <v>-0.2615763428706627</v>
+        <v>-0.3247664396944362</v>
       </c>
       <c r="D82">
-        <v>-0.2090741325352717</v>
+        <v>-0.2291686348493709</v>
       </c>
       <c r="E82">
-        <v>-0.1075279312848062</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.04177789616594952</v>
+      </c>
+      <c r="F82">
+        <v>0.1214799243420422</v>
+      </c>
+      <c r="G82">
+        <v>0.07790703732757187</v>
+      </c>
+      <c r="H82">
+        <v>0.08993803643800702</v>
+      </c>
+      <c r="I82">
+        <v>-0.05994036836621329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.001301100313435671</v>
+        <v>-0.008570105639888267</v>
       </c>
       <c r="C83">
-        <v>-0.05700009091514188</v>
+        <v>-0.03561806551523045</v>
       </c>
       <c r="D83">
-        <v>0.02529100370814245</v>
+        <v>0.04400557386816004</v>
       </c>
       <c r="E83">
-        <v>0.06435997072654856</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.09501724642485264</v>
+      </c>
+      <c r="F83">
+        <v>-0.02872950278684824</v>
+      </c>
+      <c r="G83">
+        <v>0.05072181938283018</v>
+      </c>
+      <c r="H83">
+        <v>0.03125705591537356</v>
+      </c>
+      <c r="I83">
+        <v>-0.08780944219475115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0001749085333174167</v>
+        <v>-0.001424031003958435</v>
       </c>
       <c r="C84">
-        <v>-0.0001895197760443905</v>
+        <v>-0.01549382143355166</v>
       </c>
       <c r="D84">
-        <v>0.0008184062237572092</v>
+        <v>0.03870055399652027</v>
       </c>
       <c r="E84">
-        <v>0.000599063688552337</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.008696601785986274</v>
+      </c>
+      <c r="F84">
+        <v>-0.01374414833051816</v>
+      </c>
+      <c r="G84">
+        <v>0.04354897901497518</v>
+      </c>
+      <c r="H84">
+        <v>-0.009965288356914175</v>
+      </c>
+      <c r="I84">
+        <v>0.03390848024261929</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1597122169956943</v>
+        <v>0.07083447575057523</v>
       </c>
       <c r="C85">
-        <v>-0.1237855713233588</v>
+        <v>-0.1845141313571088</v>
       </c>
       <c r="D85">
-        <v>-0.04739425488293442</v>
+        <v>-0.09262257226764795</v>
       </c>
       <c r="E85">
-        <v>0.02479190783753432</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.005221062721160962</v>
+      </c>
+      <c r="F85">
+        <v>-0.07743111300357369</v>
+      </c>
+      <c r="G85">
+        <v>0.03599861150468899</v>
+      </c>
+      <c r="H85">
+        <v>0.002571280696130153</v>
+      </c>
+      <c r="I85">
+        <v>-0.0958596806551372</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01455558098760007</v>
+        <v>0.01255790763524442</v>
       </c>
       <c r="C86">
-        <v>-0.01570540512701075</v>
+        <v>-0.03092179340522316</v>
       </c>
       <c r="D86">
-        <v>0.08867831918351714</v>
+        <v>0.1101027915418771</v>
       </c>
       <c r="E86">
-        <v>0.0492303043870506</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04360320456279151</v>
+      </c>
+      <c r="F86">
+        <v>0.01375140657143613</v>
+      </c>
+      <c r="G86">
+        <v>-0.02130240111774223</v>
+      </c>
+      <c r="H86">
+        <v>0.007456022186546735</v>
+      </c>
+      <c r="I86">
+        <v>-0.07970932299050845</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01769010810372976</v>
+        <v>0.01041357875912684</v>
       </c>
       <c r="C87">
-        <v>-0.03001134249324581</v>
+        <v>-0.05621599934360203</v>
       </c>
       <c r="D87">
-        <v>0.1257623118224883</v>
+        <v>0.1439524463332332</v>
       </c>
       <c r="E87">
-        <v>0.0398443973255876</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.01315577979670219</v>
+      </c>
+      <c r="F87">
+        <v>-0.03831186621487678</v>
+      </c>
+      <c r="G87">
+        <v>0.06867652197763878</v>
+      </c>
+      <c r="H87">
+        <v>0.01090933493494099</v>
+      </c>
+      <c r="I87">
+        <v>0.04422863115410974</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.06227148067302005</v>
+        <v>0.03198957167088481</v>
       </c>
       <c r="C88">
-        <v>-0.04509945555785209</v>
+        <v>-0.06943666733274512</v>
       </c>
       <c r="D88">
-        <v>0.04246247414181396</v>
+        <v>0.01240542770180536</v>
       </c>
       <c r="E88">
-        <v>0.0345314530534789</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01248400745013431</v>
+      </c>
+      <c r="F88">
+        <v>-0.02615161715065499</v>
+      </c>
+      <c r="G88">
+        <v>0.01022448193784586</v>
+      </c>
+      <c r="H88">
+        <v>0.04571503266444872</v>
+      </c>
+      <c r="I88">
+        <v>-0.05360284815026802</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.279167247899377</v>
+        <v>0.4070555750673905</v>
       </c>
       <c r="C89">
-        <v>0.3651056220497739</v>
+        <v>0.1840746149711595</v>
       </c>
       <c r="D89">
-        <v>0.04483348716567467</v>
+        <v>0.03186367474625527</v>
       </c>
       <c r="E89">
-        <v>0.09172213398711662</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01983451697687482</v>
+      </c>
+      <c r="F89">
+        <v>-0.06480343194164694</v>
+      </c>
+      <c r="G89">
+        <v>0.04727574537679983</v>
+      </c>
+      <c r="H89">
+        <v>0.1275967990323537</v>
+      </c>
+      <c r="I89">
+        <v>0.3696254304641151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2244024252990058</v>
+        <v>0.3102901113591626</v>
       </c>
       <c r="C90">
-        <v>0.2696667906862643</v>
+        <v>0.1233503340049061</v>
       </c>
       <c r="D90">
-        <v>0.03726858799326617</v>
+        <v>0.03315374271954003</v>
       </c>
       <c r="E90">
-        <v>-0.001264179189222227</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01830979659310918</v>
+      </c>
+      <c r="F90">
+        <v>0.01714094037006781</v>
+      </c>
+      <c r="G90">
+        <v>0.06554287243950394</v>
+      </c>
+      <c r="H90">
+        <v>-0.02587119836617369</v>
+      </c>
+      <c r="I90">
+        <v>-0.07867145611094822</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1741479266921074</v>
+        <v>0.07962212877879872</v>
       </c>
       <c r="C91">
-        <v>-0.1614636459265449</v>
+        <v>-0.2051527528288571</v>
       </c>
       <c r="D91">
-        <v>-0.102513922997526</v>
+        <v>-0.1131119239624762</v>
       </c>
       <c r="E91">
-        <v>0.1099217339963006</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07179651319064494</v>
+      </c>
+      <c r="F91">
+        <v>-0.07638227965030762</v>
+      </c>
+      <c r="G91">
+        <v>0.01907100697004132</v>
+      </c>
+      <c r="H91">
+        <v>-0.001032897455767142</v>
+      </c>
+      <c r="I91">
+        <v>-0.1250613294332081</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2052148840558797</v>
+        <v>0.3278233069987769</v>
       </c>
       <c r="C92">
-        <v>0.2812494622820538</v>
+        <v>0.1589339073477552</v>
       </c>
       <c r="D92">
-        <v>-0.03937513569683925</v>
+        <v>-0.004028608777570986</v>
       </c>
       <c r="E92">
-        <v>0.0702117181417765</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.08451864817481662</v>
+      </c>
+      <c r="F92">
+        <v>-0.02490135138516822</v>
+      </c>
+      <c r="G92">
+        <v>0.0480550408366896</v>
+      </c>
+      <c r="H92">
+        <v>0.04471940119699404</v>
+      </c>
+      <c r="I92">
+        <v>0.1270816206220411</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2491658195402746</v>
+        <v>0.3308650588248016</v>
       </c>
       <c r="C93">
-        <v>0.2821019840174376</v>
+        <v>0.1319191519962148</v>
       </c>
       <c r="D93">
-        <v>0.01563599776340888</v>
+        <v>-0.01735351924325525</v>
       </c>
       <c r="E93">
-        <v>0.008879781832814723</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02340174174450871</v>
+      </c>
+      <c r="F93">
+        <v>-0.0133679142843974</v>
+      </c>
+      <c r="G93">
+        <v>-0.009806959848634127</v>
+      </c>
+      <c r="H93">
+        <v>0.003820022067198898</v>
+      </c>
+      <c r="I93">
+        <v>-0.1054003964319677</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.3285785920434615</v>
+        <v>0.1557515960476872</v>
       </c>
       <c r="C94">
-        <v>-0.2263191165283703</v>
+        <v>-0.3498339489927254</v>
       </c>
       <c r="D94">
-        <v>-0.3679222669141033</v>
+        <v>-0.3473975457862797</v>
       </c>
       <c r="E94">
-        <v>-0.1752804724726889</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.03974663864343945</v>
+      </c>
+      <c r="F94">
+        <v>0.1144608947501169</v>
+      </c>
+      <c r="G94">
+        <v>0.2958113923314341</v>
+      </c>
+      <c r="H94">
+        <v>-0.08480673472038575</v>
+      </c>
+      <c r="I94">
+        <v>0.4184146140226008</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.02472498140912165</v>
+        <v>0.02180944290390475</v>
       </c>
       <c r="C95">
-        <v>-0.03848675078922856</v>
+        <v>-0.06302574642891906</v>
       </c>
       <c r="D95">
-        <v>0.08026068429766034</v>
+        <v>0.111880696936116</v>
       </c>
       <c r="E95">
-        <v>0.1166843771406203</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.2028186317026453</v>
+      </c>
+      <c r="F95">
+        <v>0.0717724948987815</v>
+      </c>
+      <c r="G95">
+        <v>-0.09163941439722986</v>
+      </c>
+      <c r="H95">
+        <v>0.401121608386728</v>
+      </c>
+      <c r="I95">
+        <v>0.5053826220337786</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0005476985930748804</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0001615095006845998</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0005423869305012253</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.001179273601440749</v>
+      </c>
+      <c r="F97">
+        <v>0.001773541966701135</v>
+      </c>
+      <c r="G97">
+        <v>-0.001096004855014191</v>
+      </c>
+      <c r="H97">
+        <v>0.0005219470630741839</v>
+      </c>
+      <c r="I97">
+        <v>0.0003692537254543312</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1552448519028528</v>
+        <v>0.1197114231246954</v>
       </c>
       <c r="C98">
-        <v>-0.06000888303487599</v>
+        <v>-0.1379021403260488</v>
       </c>
       <c r="D98">
-        <v>0.1051515459307332</v>
+        <v>0.05743719710581718</v>
       </c>
       <c r="E98">
-        <v>-0.2274681265689953</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2678679407558093</v>
+      </c>
+      <c r="F98">
+        <v>0.1705124898695749</v>
+      </c>
+      <c r="G98">
+        <v>-0.2656493144387516</v>
+      </c>
+      <c r="H98">
+        <v>-0.1397724485973916</v>
+      </c>
+      <c r="I98">
+        <v>0.04380679260759417</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.002439840319932172</v>
+        <v>0.001372458609362033</v>
       </c>
       <c r="C101">
-        <v>-0.02241877217359994</v>
+        <v>-0.03037764235234084</v>
       </c>
       <c r="D101">
-        <v>0.1029749927402411</v>
+        <v>0.09780554080035879</v>
       </c>
       <c r="E101">
-        <v>0.01194914198162339</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.03811655324353231</v>
+      </c>
+      <c r="F101">
+        <v>-0.03013031062818854</v>
+      </c>
+      <c r="G101">
+        <v>0.01135332413708962</v>
+      </c>
+      <c r="H101">
+        <v>0.1203231331896113</v>
+      </c>
+      <c r="I101">
+        <v>-0.02249960493850468</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1250860635965722</v>
+        <v>0.04243767446222092</v>
       </c>
       <c r="C102">
-        <v>-0.1372026974023792</v>
+        <v>-0.1517614480832014</v>
       </c>
       <c r="D102">
-        <v>-0.07616757751358799</v>
+        <v>-0.09572069280294337</v>
       </c>
       <c r="E102">
-        <v>-0.03334778375643135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03119310818510633</v>
+      </c>
+      <c r="F102">
+        <v>0.06466301952534043</v>
+      </c>
+      <c r="G102">
+        <v>-0.002244853020161794</v>
+      </c>
+      <c r="H102">
+        <v>0.05160572634366303</v>
+      </c>
+      <c r="I102">
+        <v>-0.0190312036223103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
